--- a/biology/Médecine/Grifols/Grifols.xlsx
+++ b/biology/Médecine/Grifols/Grifols.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grifols est un groupe médical espagnol opérant dans le domaine de la santé (production de plasma sanguin) et fondé en 1940 par le docteur Dr José Antonio Grifols Roig.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2003, Grifols a intégré dans sa structure une usine de production de dérivés du sang située à Los Angeles, Californie, poursuivant sa stratégie ayant pour but de consolider sa présence aux États-Unis.
 En 2006, introduction à la bourse de Madrid.
-En novembre 2013, Novartis annonce la vente de sa filiale de test de transfusions sanguines pour 1,7 milliard de dollars à Grifols[5].
-En décembre 2016, Grifols annonce l'acquisition pour 1,85 milliard de dollars de la participation de Hologic qu'il ne possédait pas, dans sa co-entreprise dans le domaine du sang[6].
-En septembre 2021, Grifols annonce l'acquisition de Biotest, une entreprise allemande spécialisée dans la plasma, pour 1,9 milliard de dollars[7].
+En novembre 2013, Novartis annonce la vente de sa filiale de test de transfusions sanguines pour 1,7 milliard de dollars à Grifols.
+En décembre 2016, Grifols annonce l'acquisition pour 1,85 milliard de dollars de la participation de Hologic qu'il ne possédait pas, dans sa co-entreprise dans le domaine du sang.
+En septembre 2021, Grifols annonce l'acquisition de Biotest, une entreprise allemande spécialisée dans la plasma, pour 1,9 milliard de dollars.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Grifols a des usines de production à Barcelone, où se trouve le siège, et à Murcie. Grifols est connu pour son système de distribution de médicaments dans les pharmacies des hôpitaux, tendant à réduire ainsi la possibilité d'erreur des professionnels dans l'administration de la médication adaptée à chaque patient.
 Actuellement, le groupe commercialise ses produits dans différents pays par l'intermédiaire de ses filiales en Allemagne, Italie, Royaume-Uni, République tchèque, Slovaquie, Pologne, Portugal, Argentine, Brésil, Canada, États-Unis, Mexique, Chili, Malaisie, Thaïlande, Singapour, Japon et Pérou.
